--- a/ComputerPuzzle.xlsx
+++ b/ComputerPuzzle.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joel\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{542CF507-F3A8-437F-8F4E-E29716C8CB66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9026810-B7E4-4E83-9D92-7C1989F2EFC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39140" yWindow="690" windowWidth="23730" windowHeight="17800" xr2:uid="{0682429D-6D4B-4000-90C0-1F38A1A2BD4C}"/>
+    <workbookView xWindow="4990" yWindow="2270" windowWidth="23730" windowHeight="17800" activeTab="1" xr2:uid="{0682429D-6D4B-4000-90C0-1F38A1A2BD4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Web" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="69">
   <si>
     <t>HTML</t>
   </si>
@@ -225,6 +225,24 @@
   </si>
   <si>
     <t>Spredsheet</t>
+  </si>
+  <si>
+    <t>Puzzle Name</t>
+  </si>
+  <si>
+    <t>Background Image Name</t>
+  </si>
+  <si>
+    <t>Web 2.0</t>
+  </si>
+  <si>
+    <t>Internet.jpg</t>
+  </si>
+  <si>
+    <t>Windows</t>
+  </si>
+  <si>
+    <t>Windows.jpg</t>
   </si>
 </sst>
 </file>
@@ -576,35 +594,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03D00416-4B4F-452B-9246-43ECE5C04C23}">
-  <dimension ref="A2:B17"/>
+  <dimension ref="A2:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.6328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="62" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>30</v>
       </c>
       <c r="B2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -612,7 +643,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -620,7 +651,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -628,7 +659,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -636,7 +667,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -644,7 +675,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -652,7 +683,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -660,7 +691,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -668,7 +699,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -676,7 +707,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -684,7 +715,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -692,7 +723,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -700,7 +731,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -723,35 +754,48 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DF166D4-0F86-47B2-ABB0-AF760C47D299}">
-  <dimension ref="A2:B18"/>
+  <dimension ref="A2:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="33.7265625" customWidth="1"/>
     <col min="2" max="2" width="55.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>30</v>
       </c>
       <c r="B2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>32</v>
       </c>
       <c r="B3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -759,7 +803,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -767,7 +811,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -775,7 +819,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -783,7 +827,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -791,7 +835,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -799,7 +843,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -807,7 +851,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>47</v>
       </c>
@@ -815,7 +859,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -823,7 +867,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -831,7 +875,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>53</v>
       </c>
@@ -839,7 +883,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>55</v>
       </c>
@@ -847,7 +891,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>57</v>
       </c>
